--- a/AM2019/eval_res/am_eval_log.xlsx
+++ b/AM2019/eval_res/am_eval_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,28 +768,20 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp50_orgK5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+          <t>Nov28_nE_tsp20_C_ref</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.470210552215576</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.670873165130615</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3208.8447265625</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6853.0830078125</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -800,28 +792,20 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp50_orgK10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+          <t>Nov28_nE_tsp20_C_relK3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.143247604370117</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.744531154632568</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3325.4833984375</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7793.111328125</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -832,28 +816,20 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp50_relK5_relE</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+          <t>Nov28_nE_tsp20_C_orgK3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.60981559753418</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.809006690979004</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3252.00439453125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6893.89111328125</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -864,28 +840,22 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp50_relK5_orgE</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+          <t>Nov28_nE_tsp20_C_orgK20_onlyD</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.172098636627197</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.68180513381958</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+      <c r="E17" t="n">
+        <v>6825.1875</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -896,20 +866,20 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp100_ref</t>
+          <t>Nov28_nE_tsp20_C_relE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.332605361938477</v>
+        <v>3.705251455307007</v>
       </c>
       <c r="C18" t="n">
-        <v>9.006415367126465</v>
+        <v>3.318963527679443</v>
       </c>
       <c r="D18" t="n">
-        <v>9588.8583984375</v>
+        <v>3182.007080078125</v>
       </c>
       <c r="E18" t="n">
-        <v>17375.357421875</v>
+        <v>7288.74365234375</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -920,20 +890,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp100_relK5</t>
+          <t>Nov28_nE_tsp20_C_NrS_relE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.359302520751953</v>
+        <v>3.709573984146118</v>
       </c>
       <c r="C19" t="n">
-        <v>8.944164276123047</v>
+        <v>3.249174118041992</v>
       </c>
       <c r="D19" t="n">
-        <v>9144.7138671875</v>
+        <v>3095.14404296875</v>
       </c>
       <c r="E19" t="n">
-        <v>16565.55859375</v>
+        <v>6897.97705078125</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -944,20 +914,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp100_relE</t>
+          <t>Nov28_nE_tsp20_C_orgE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.871892929077148</v>
+        <v>3.617497444152832</v>
       </c>
       <c r="C20" t="n">
-        <v>9.562350273132324</v>
+        <v>3.239850044250488</v>
       </c>
       <c r="D20" t="n">
-        <v>9250.560546875</v>
+        <v>3179.825927734375</v>
       </c>
       <c r="E20" t="n">
-        <v>17368.822265625</v>
+        <v>7123.72119140625</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -968,20 +938,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp100_orgE</t>
+          <t>Nov28_nE_tsp20_C_NrS_orgE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.690058708190918</v>
+        <v>3.623395919799805</v>
       </c>
       <c r="C21" t="n">
-        <v>10.72351837158203</v>
+        <v>3.187514781951904</v>
       </c>
       <c r="D21" t="n">
-        <v>9577.072265625</v>
+        <v>3092.57763671875</v>
       </c>
       <c r="E21" t="n">
-        <v>17702.607421875</v>
+        <v>6892.955078125</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -992,20 +962,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp20_C_ref</t>
+          <t>Nov28_nE_tsp50_ref</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.470210552215576</v>
+        <v>6.721795082092285</v>
       </c>
       <c r="C22" t="n">
-        <v>4.670873165130615</v>
+        <v>6.523434638977051</v>
       </c>
       <c r="D22" t="n">
-        <v>3208.8447265625</v>
+        <v>5647.2587890625</v>
       </c>
       <c r="E22" t="n">
-        <v>6853.0830078125</v>
+        <v>10410.84765625</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1016,20 +986,20 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp20_C_relK3</t>
+          <t>Nov28_nE_tsp50_relK5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.143247604370117</v>
+        <v>6.465879917144775</v>
       </c>
       <c r="C23" t="n">
-        <v>3.744531154632568</v>
+        <v>6.1927809715271</v>
       </c>
       <c r="D23" t="n">
-        <v>3325.4833984375</v>
+        <v>5462.09130859375</v>
       </c>
       <c r="E23" t="n">
-        <v>7793.111328125</v>
+        <v>10133.4345703125</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1040,20 +1010,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp20_C_orgK3</t>
+          <t>Nov28_nE_tsp50_relK10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.60981559753418</v>
+        <v>6.437077045440674</v>
       </c>
       <c r="C24" t="n">
-        <v>4.809006690979004</v>
+        <v>6.19343900680542</v>
       </c>
       <c r="D24" t="n">
-        <v>3252.00439453125</v>
+        <v>5523.998046875</v>
       </c>
       <c r="E24" t="n">
-        <v>6893.89111328125</v>
+        <v>11025.3662109375</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1064,22 +1034,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp20_C_orgK20_onlyD</t>
+          <t>Nov28_nE_tsp50_relE</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.172098636627197</v>
+        <v>6.060116291046143</v>
       </c>
       <c r="C25" t="n">
-        <v>3.68180513381958</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+        <v>5.907279014587402</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5398.0830078125</v>
       </c>
       <c r="E25" t="n">
-        <v>6825.1875</v>
+        <v>10162.2099609375</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1090,20 +1058,20 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp20_C_relE</t>
+          <t>Nov28_nE_tsp50_orgE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.705251455307007</v>
+        <v>6.02055835723877</v>
       </c>
       <c r="C26" t="n">
-        <v>3.318963527679443</v>
+        <v>6.115428447723389</v>
       </c>
       <c r="D26" t="n">
-        <v>3182.007080078125</v>
+        <v>5440.56689453125</v>
       </c>
       <c r="E26" t="n">
-        <v>7288.74365234375</v>
+        <v>11551.22265625</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1114,20 +1082,20 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp20_C_NrS_relE</t>
+          <t>Nov28_nE_tsp50_orgK5</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.709573984146118</v>
+        <v>6.694005012512207</v>
       </c>
       <c r="C27" t="n">
-        <v>3.249174118041992</v>
+        <v>6.453564643859863</v>
       </c>
       <c r="D27" t="n">
-        <v>3095.14404296875</v>
+        <v>5541.919921875</v>
       </c>
       <c r="E27" t="n">
-        <v>6897.97705078125</v>
+        <v>10201.8857421875</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1138,20 +1106,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp20_C_orgE</t>
+          <t>Nov28_nE_tsp50_orgK10</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.617497444152832</v>
+        <v>6.712284564971924</v>
       </c>
       <c r="C28" t="n">
-        <v>3.239850044250488</v>
+        <v>6.51953125</v>
       </c>
       <c r="D28" t="n">
-        <v>3179.825927734375</v>
+        <v>5596.5859375</v>
       </c>
       <c r="E28" t="n">
-        <v>7123.72119140625</v>
+        <v>10680.248046875</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1162,22 +1130,470 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Nov28_nE_tsp20_C_NrS_orgE</t>
+          <t>Nov28_nE_tsp50_relK5_relE</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.623395919799805</v>
+        <v>6.157224655151367</v>
       </c>
       <c r="C29" t="n">
-        <v>3.187514781951904</v>
+        <v>5.831581115722656</v>
       </c>
       <c r="D29" t="n">
-        <v>3092.57763671875</v>
+        <v>5446.59912109375</v>
       </c>
       <c r="E29" t="n">
-        <v>6892.955078125</v>
+        <v>10297.6357421875</v>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp50_relK5_orgE</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5.911998271942139</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.001946449279785</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5309.45654296875</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10372.71875</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp50_C_relE</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6.097983360290527</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.621487140655518</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5465.27783203125</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10389.826171875</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp50_C_NrS_relE</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.125842571258545</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.612419128417969</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5327.2685546875</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10080.7744140625</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp50_C_orgE</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5.899977684020996</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.401109218597412</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5410.65478515625</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10878.662109375</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp50_C_NrS_orgE</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.037317276000977</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.319555759429932</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5349.51611328125</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10398.1064453125</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_ref</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9.332605361938477</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.006415367126465</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9588.8583984375</v>
+      </c>
+      <c r="E35" t="n">
+        <v>17375.357421875</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_relK5</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9.359302520751953</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.944164276123047</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9144.7138671875</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16565.55859375</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_relE</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8.871892929077148</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.562350273132324</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9250.560546875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>17368.822265625</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_orgE</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8.690058708190918</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.72351837158203</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9577.072265625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>17702.607421875</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_orgK5</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9.309037208557129</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.508283615112305</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10282.9580078125</v>
+      </c>
+      <c r="E39" t="n">
+        <v>18551.8671875</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_relK20</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_orgK20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_relK5_relE</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8.94614315032959</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.704010009765625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8952.0244140625</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16582.453125</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_relK5_orgE</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8.711645126342773</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.819945335388184</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8855.6279296875</v>
+      </c>
+      <c r="E43" t="n">
+        <v>16507.681640625</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_C_relE</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8.934219360351562</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.460886001586914</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9154.654296875</v>
+      </c>
+      <c r="E44" t="n">
+        <v>16950.13671875</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_C_NrS_relE</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9.028460502624512</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.023848533630371</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8622.369140625</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14543.8798828125</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_C_orgE</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8.596117973327637</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.208659172058105</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8804.8779296875</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17381.037109375</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Nov28_nE_tsp100_C_NrS_orgE</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>8.754837989807129</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.369233131408691</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8437.59765625</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16298.8720703125</v>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>F</t>
         </is>
